--- a/output/StructureDefinition-rv-age-in-months.xlsx
+++ b/output/StructureDefinition-rv-age-in-months.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-rv-age-in-months.xlsx
+++ b/output/StructureDefinition-rv-age-in-months.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-age-in-months.xlsx
+++ b/output/StructureDefinition-rv-age-in-months.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-rv-age-in-months.xlsx
+++ b/output/StructureDefinition-rv-age-in-months.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-age-in-months.xlsx
+++ b/output/StructureDefinition-rv-age-in-months.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-age-in-months.xlsx
+++ b/output/StructureDefinition-rv-age-in-months.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$155</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5967" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6006" uniqueCount="696">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1357,8 +1357,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -1373,6 +1373,13 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1383,6 +1390,12 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Observation.effective[x]:effectiveDateTime</t>
+  </si>
+  <si>
+    <t>effectiveDateTime</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -1457,10 +1470,6 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t>ele-1
 obs-7</t>
   </si>
@@ -1509,7 +1518,7 @@
 </t>
   </si>
   <si>
-    <t>Monate</t>
+    <t>Monat(e)</t>
   </si>
   <si>
     <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
@@ -2483,7 +2492,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP154"/>
+  <dimension ref="A1:AP155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -16340,7 +16349,7 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>92</v>
@@ -16404,16 +16413,14 @@
         <v>82</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="AC115" s="2"/>
       <c r="AD115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>433</v>
@@ -16431,19 +16438,19 @@
         <v>105</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16451,24 +16458,26 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C116" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="D116" t="s" s="2">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I116" t="s" s="2">
         <v>82</v>
@@ -16477,18 +16486,20 @@
         <v>93</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O116" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16536,7 +16547,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16551,19 +16562,19 @@
         <v>105</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>82</v>
+        <v>442</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16571,10 +16582,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16585,7 +16596,7 @@
         <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
@@ -16597,20 +16608,18 @@
         <v>93</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>82</v>
       </c>
@@ -16658,34 +16667,34 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>457</v>
+        <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -16693,10 +16702,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16707,7 +16716,7 @@
         <v>80</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>82</v>
@@ -16719,19 +16728,19 @@
         <v>93</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>465</v>
+        <v>168</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16768,59 +16777,59 @@
         <v>82</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AC118" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK118" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AG118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AL118" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C119" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16841,19 +16850,19 @@
         <v>93</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -16890,19 +16899,17 @@
         <v>82</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="AC119" s="2"/>
       <c r="AD119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16911,28 +16918,28 @@
         <v>92</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="120" hidden="true">
@@ -16940,9 +16947,11 @@
         <v>476</v>
       </c>
       <c r="B120" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C120" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
         <v>82</v>
       </c>
@@ -16960,19 +16969,23 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>215</v>
+        <v>478</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>216</v>
+        <v>467</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
       </c>
@@ -17020,7 +17033,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>218</v>
+        <v>465</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17029,7 +17042,7 @@
         <v>92</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>82</v>
@@ -17038,38 +17051,38 @@
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>113</v>
+        <v>474</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>82</v>
+        <v>475</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>82</v>
@@ -17081,17 +17094,15 @@
         <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N121" s="2"/>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17128,31 +17139,31 @@
         <v>82</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC121" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>82</v>
@@ -17164,7 +17175,7 @@
         <v>82</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -17175,46 +17186,44 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>482</v>
+        <v>140</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>483</v>
+        <v>141</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>484</v>
+        <v>221</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>82</v>
       </c>
@@ -17250,31 +17259,31 @@
         <v>82</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC122" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>487</v>
+        <v>222</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>82</v>
@@ -17283,10 +17292,10 @@
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>488</v>
+        <v>82</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>489</v>
+        <v>106</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17297,10 +17306,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17308,41 +17317,39 @@
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J123" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>115</v>
+        <v>485</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>259</v>
+        <v>488</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q123" t="s" s="2">
-        <v>495</v>
-      </c>
+      <c r="Q123" s="2"/>
       <c r="R123" t="s" s="2">
         <v>82</v>
       </c>
@@ -17362,13 +17369,13 @@
         <v>82</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>497</v>
+        <v>82</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>82</v>
@@ -17386,7 +17393,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17407,10 +17414,10 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17421,10 +17428,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17432,39 +17439,41 @@
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I124" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J124" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="N124" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="R124" t="s" s="2">
         <v>82</v>
       </c>
@@ -17484,13 +17493,13 @@
         <v>82</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>82</v>
+        <v>500</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>82</v>
@@ -17508,7 +17517,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17529,10 +17538,10 @@
         <v>82</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17543,10 +17552,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17569,26 +17578,26 @@
         <v>93</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>513</v>
+        <v>259</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" t="s" s="2">
-        <v>515</v>
+        <v>82</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>82</v>
@@ -17630,7 +17639,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17639,7 +17648,7 @@
         <v>92</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>517</v>
+        <v>104</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>105</v>
@@ -17651,10 +17660,10 @@
         <v>82</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17665,10 +17674,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17691,26 +17700,26 @@
         <v>93</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>82</v>
@@ -17752,7 +17761,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17761,7 +17770,7 @@
         <v>92</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>104</v>
+        <v>520</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>105</v>
@@ -17773,10 +17782,10 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17787,10 +17796,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17798,7 +17807,7 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>92</v>
@@ -17810,29 +17819,29 @@
         <v>82</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" t="s" s="2">
-        <v>82</v>
+        <v>527</v>
       </c>
       <c r="S127" t="s" s="2">
         <v>82</v>
@@ -17850,11 +17859,13 @@
         <v>82</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y127" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z127" t="s" s="2">
-        <v>532</v>
+        <v>82</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>82</v>
@@ -17872,7 +17883,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17881,7 +17892,7 @@
         <v>92</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>533</v>
+        <v>104</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>105</v>
@@ -17893,10 +17904,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17907,24 +17918,24 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>536</v>
+        <v>82</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I128" t="s" s="2">
         <v>82</v>
@@ -17936,16 +17947,16 @@
         <v>198</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -17970,13 +17981,11 @@
         <v>82</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y128" s="2"/>
       <c r="Z128" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -17994,16 +18003,16 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>104</v>
+        <v>536</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>105</v>
@@ -18012,31 +18021,31 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>545</v>
+        <v>106</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP128" t="s" s="2">
-        <v>547</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>82</v>
+        <v>539</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -18055,19 +18064,19 @@
         <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>549</v>
+        <v>198</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18092,13 +18101,13 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>82</v>
+        <v>545</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18116,7 +18125,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18134,27 +18143,27 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>82</v>
+        <v>547</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP129" t="s" s="2">
-        <v>82</v>
+        <v>550</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18165,7 +18174,7 @@
         <v>80</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>82</v>
@@ -18177,18 +18186,20 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>198</v>
+        <v>552</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O130" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
       </c>
@@ -18212,13 +18223,13 @@
         <v>82</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>560</v>
+        <v>82</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>561</v>
+        <v>82</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>82</v>
@@ -18236,13 +18247,13 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>104</v>
@@ -18254,27 +18265,27 @@
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>562</v>
+        <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP130" t="s" s="2">
-        <v>565</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18300,17 +18311,15 @@
         <v>198</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>82</v>
       </c>
@@ -18337,10 +18346,10 @@
         <v>383</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>82</v>
@@ -18358,7 +18367,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18376,27 +18385,27 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>82</v>
+        <v>565</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP131" t="s" s="2">
-        <v>82</v>
+        <v>568</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18419,18 +18428,20 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>576</v>
+        <v>198</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O132" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
       </c>
@@ -18454,13 +18465,13 @@
         <v>82</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>82</v>
+        <v>574</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>82</v>
@@ -18478,7 +18489,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18490,33 +18501,33 @@
         <v>104</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>580</v>
+        <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP132" t="s" s="2">
-        <v>583</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18539,16 +18550,16 @@
         <v>82</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18598,7 +18609,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18616,27 +18627,27 @@
         <v>82</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP133" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18647,7 +18658,7 @@
         <v>80</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>82</v>
@@ -18659,20 +18670,18 @@
         <v>82</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
         <v>82</v>
       </c>
@@ -18720,45 +18729,45 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>599</v>
+        <v>170</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>82</v>
+        <v>592</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP134" t="s" s="2">
-        <v>82</v>
+        <v>595</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18769,7 +18778,7 @@
         <v>80</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>82</v>
@@ -18781,16 +18790,20 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>215</v>
+        <v>597</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>216</v>
+        <v>598</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="O135" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
       </c>
@@ -18838,19 +18851,19 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>218</v>
+        <v>596</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>82</v>
+        <v>602</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>82</v>
@@ -18859,10 +18872,10 @@
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>82</v>
+        <v>603</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>113</v>
+        <v>604</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
@@ -18873,21 +18886,21 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>82</v>
@@ -18899,17 +18912,15 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N136" s="2"/>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -18946,31 +18957,31 @@
         <v>82</v>
       </c>
       <c r="AB136" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>82</v>
@@ -18982,7 +18993,7 @@
         <v>82</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
@@ -18993,14 +19004,14 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>605</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19013,26 +19024,24 @@
         <v>82</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>606</v>
+        <v>141</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>607</v>
+        <v>221</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O137" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
         <v>82</v>
       </c>
@@ -19068,19 +19077,19 @@
         <v>82</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>608</v>
+        <v>222</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19115,44 +19124,46 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>82</v>
+        <v>608</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L138" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>612</v>
-      </c>
       <c r="N138" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O138" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
       </c>
@@ -19200,19 +19211,19 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>614</v>
+        <v>104</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>615</v>
+        <v>148</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>82</v>
@@ -19221,10 +19232,10 @@
         <v>82</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>616</v>
+        <v>82</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>617</v>
+        <v>106</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>82</v>
@@ -19235,10 +19246,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19261,16 +19272,16 @@
         <v>82</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -19320,20 +19331,20 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="AG139" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>615</v>
-      </c>
       <c r="AK139" t="s" s="2">
         <v>82</v>
       </c>
@@ -19341,10 +19352,10 @@
         <v>82</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>82</v>
@@ -19355,10 +19366,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19381,20 +19392,18 @@
         <v>82</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>198</v>
+        <v>613</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="M140" t="s" s="2">
-        <v>624</v>
-      </c>
       <c r="N140" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>626</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>82</v>
       </c>
@@ -19418,13 +19427,13 @@
         <v>82</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>627</v>
+        <v>82</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>628</v>
+        <v>82</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19442,7 +19451,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19451,22 +19460,22 @@
         <v>92</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>104</v>
+        <v>617</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>105</v>
+        <v>618</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>629</v>
+        <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>546</v>
+        <v>624</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>82</v>
@@ -19477,10 +19486,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19491,7 +19500,7 @@
         <v>80</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>82</v>
@@ -19506,16 +19515,16 @@
         <v>198</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19540,13 +19549,13 @@
         <v>82</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>383</v>
+        <v>119</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>82</v>
@@ -19564,13 +19573,13 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>104</v>
@@ -19582,13 +19591,13 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
@@ -19599,10 +19608,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19613,7 +19622,7 @@
         <v>80</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>82</v>
@@ -19625,19 +19634,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>639</v>
+        <v>198</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19662,13 +19671,13 @@
         <v>82</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>82</v>
+        <v>639</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>82</v>
+        <v>640</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>82</v>
@@ -19686,31 +19695,31 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>644</v>
+        <v>105</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>82</v>
+        <v>632</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>646</v>
+        <v>549</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>
@@ -19721,10 +19730,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19747,18 +19756,20 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>215</v>
+        <v>642</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O143" s="2"/>
+        <v>645</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
       </c>
@@ -19806,7 +19817,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19818,7 +19829,7 @@
         <v>104</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>105</v>
+        <v>647</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>82</v>
@@ -19827,10 +19838,10 @@
         <v>82</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>82</v>
@@ -19841,10 +19852,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19855,7 +19866,7 @@
         <v>80</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>82</v>
@@ -19864,19 +19875,19 @@
         <v>82</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="L144" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>654</v>
-      </c>
       <c r="N144" t="s" s="2">
-        <v>655</v>
+        <v>259</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19926,19 +19937,19 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>82</v>
@@ -19947,10 +19958,10 @@
         <v>82</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>656</v>
+        <v>619</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>82</v>
@@ -19961,10 +19972,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19987,16 +19998,16 @@
         <v>93</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -20046,7 +20057,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20067,10 +20078,10 @@
         <v>82</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>82</v>
@@ -20081,10 +20092,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20107,20 +20118,18 @@
         <v>93</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N146" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="M146" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
         <v>82</v>
       </c>
@@ -20168,7 +20177,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20180,7 +20189,7 @@
         <v>104</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>82</v>
@@ -20189,10 +20198,10 @@
         <v>82</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>82</v>
@@ -20203,10 +20212,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20217,7 +20226,7 @@
         <v>80</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>82</v>
@@ -20226,19 +20235,23 @@
         <v>82</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>215</v>
+        <v>597</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>216</v>
+        <v>668</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
+        <v>669</v>
+      </c>
+      <c r="N147" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="O147" t="s" s="2">
+        <v>671</v>
+      </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
       </c>
@@ -20286,19 +20299,19 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>218</v>
+        <v>667</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>82</v>
@@ -20307,10 +20320,10 @@
         <v>82</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>82</v>
+        <v>672</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>113</v>
+        <v>673</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>82</v>
@@ -20321,21 +20334,21 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>82</v>
@@ -20347,17 +20360,15 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N148" s="2"/>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
         <v>82</v>
@@ -20394,31 +20405,31 @@
         <v>82</v>
       </c>
       <c r="AB148" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC148" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD148" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>82</v>
@@ -20430,7 +20441,7 @@
         <v>82</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>82</v>
@@ -20441,14 +20452,14 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>605</v>
+        <v>139</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
@@ -20461,26 +20472,24 @@
         <v>82</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>606</v>
+        <v>141</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>607</v>
+        <v>221</v>
       </c>
       <c r="N149" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O149" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
         <v>82</v>
       </c>
@@ -20516,19 +20525,19 @@
         <v>82</v>
       </c>
       <c r="AB149" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>608</v>
+        <v>222</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20563,45 +20572,45 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>82</v>
+        <v>608</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J150" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>675</v>
+        <v>609</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>676</v>
+        <v>610</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>677</v>
+        <v>143</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>382</v>
+        <v>152</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
@@ -20626,13 +20635,13 @@
         <v>82</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>82</v>
@@ -20650,34 +20659,34 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>674</v>
+        <v>611</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>678</v>
+        <v>82</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -20685,10 +20694,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20696,7 +20705,7 @@
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>92</v>
@@ -20711,19 +20720,19 @@
         <v>93</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>462</v>
+        <v>198</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="M151" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>681</v>
-      </c>
       <c r="O151" t="s" s="2">
-        <v>466</v>
+        <v>382</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -20748,13 +20757,13 @@
         <v>82</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>82</v>
@@ -20772,10 +20781,10 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>92</v>
@@ -20790,27 +20799,27 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>470</v>
+        <v>388</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>471</v>
+        <v>389</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="AP151" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20830,22 +20839,22 @@
         <v>82</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>198</v>
+        <v>466</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="M152" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>686</v>
-      </c>
       <c r="O152" t="s" s="2">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -20870,13 +20879,13 @@
         <v>82</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>687</v>
+        <v>82</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>688</v>
+        <v>82</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>82</v>
@@ -20894,7 +20903,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -20903,7 +20912,7 @@
         <v>92</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>533</v>
+        <v>104</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>105</v>
@@ -20912,38 +20921,38 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>82</v>
+        <v>685</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>106</v>
+        <v>473</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>534</v>
+        <v>474</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP152" t="s" s="2">
-        <v>82</v>
+        <v>475</v>
       </c>
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>536</v>
+        <v>82</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>82</v>
@@ -20958,16 +20967,16 @@
         <v>198</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>537</v>
+        <v>687</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>538</v>
+        <v>688</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>539</v>
+        <v>689</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>82</v>
@@ -20992,13 +21001,13 @@
         <v>82</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>542</v>
+        <v>690</v>
       </c>
       <c r="Z153" t="s" s="2">
-        <v>543</v>
+        <v>691</v>
       </c>
       <c r="AA153" t="s" s="2">
         <v>82</v>
@@ -21016,16 +21025,16 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>104</v>
+        <v>536</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>105</v>
@@ -21034,31 +21043,31 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>545</v>
+        <v>106</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP153" t="s" s="2">
-        <v>547</v>
+        <v>82</v>
       </c>
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>82</v>
+        <v>539</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
@@ -21077,19 +21086,19 @@
         <v>82</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>691</v>
+        <v>540</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>692</v>
+        <v>541</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>598</v>
+        <v>543</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -21114,13 +21123,13 @@
         <v>82</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>82</v>
+        <v>545</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="AA154" t="s" s="2">
         <v>82</v>
@@ -21138,7 +21147,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21147,32 +21156,154 @@
         <v>81</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>82</v>
+        <v>547</v>
       </c>
       <c r="AM154" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AN154" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AO154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP154" t="s" s="2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="155" hidden="true">
+      <c r="A155" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AN154" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="AO154" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP154" t="s" s="2">
+      <c r="P155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q155" s="2"/>
+      <c r="R155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM155" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AN155" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AO155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP155" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP154">
+  <autoFilter ref="A1:AP155">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -21182,7 +21313,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI153">
+  <conditionalFormatting sqref="A2:AI154">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
